--- a/src/test/resources/Data/input.xlsx
+++ b/src/test/resources/Data/input.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6015" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TC01" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,12 +20,76 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>login title</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>errormessage</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Login Dolibarr 3.3.1</t>
+  </si>
+  <si>
+    <t>Dolibarr 3.3.1</t>
+  </si>
+  <si>
+    <t>Bad value for login or password</t>
+  </si>
+  <si>
+    <t>admini</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>skd</t>
+  </si>
+  <si>
+    <t>j11</t>
+  </si>
+  <si>
+    <t>asdfg</t>
+  </si>
+  <si>
+    <t>!@#456</t>
+  </si>
+  <si>
+    <t>ASdfg987</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +112,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -331,12 +401,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/Data/input.xlsx
+++ b/src/test/resources/Data/input.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6015" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15975" windowHeight="6015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TC01" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="TC02" sheetId="3" r:id="rId2"/>
+    <sheet name="TC03" sheetId="5" r:id="rId3"/>
+    <sheet name="TC04" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O18"/>
+  <oleSize ref="A1:M18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>Login</t>
   </si>
@@ -72,6 +74,126 @@
   </si>
   <si>
     <t>ASdfg987</t>
+  </si>
+  <si>
+    <t>Dolibarr</t>
+  </si>
+  <si>
+    <t>home area title</t>
+  </si>
+  <si>
+    <t>Dolibarr - Group card</t>
+  </si>
+  <si>
+    <t>gname</t>
+  </si>
+  <si>
+    <t>gnote</t>
+  </si>
+  <si>
+    <t>grouptitle</t>
+  </si>
+  <si>
+    <t>new user title</t>
+  </si>
+  <si>
+    <t>Dolibarr - User card</t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t>fn</t>
+  </si>
+  <si>
+    <t>deepi</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>sehwag</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>deepa@gamil.com</t>
+  </si>
+  <si>
+    <t>fina</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>accnt</t>
+  </si>
+  <si>
+    <t>vani</t>
+  </si>
+  <si>
+    <t>sriraksha</t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>sales23</t>
+  </si>
+  <si>
+    <t>purchase23</t>
+  </si>
+  <si>
+    <t>prodcution23</t>
+  </si>
+  <si>
+    <t>stocks23</t>
+  </si>
+  <si>
+    <t>RANA</t>
+  </si>
+  <si>
+    <t>SHAMA</t>
+  </si>
+  <si>
+    <t>BHAMA</t>
+  </si>
+  <si>
+    <t>ARJUN</t>
+  </si>
+  <si>
+    <t>MOHAN</t>
+  </si>
+  <si>
+    <t>MURALI</t>
+  </si>
+  <si>
+    <t>DINGA</t>
+  </si>
+  <si>
+    <t>BINGA</t>
+  </si>
+  <si>
+    <t>MANGA</t>
+  </si>
+  <si>
+    <t>DINGI</t>
+  </si>
+  <si>
+    <t>BINGI</t>
+  </si>
+  <si>
+    <t>MANGI</t>
   </si>
 </sst>
 </file>
@@ -404,7 +526,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,57 +621,223 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>123</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
